--- a/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,800 +453,1429 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44970</v>
+        <v>44976</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44977</v>
+        <v>44983</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45159</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45166</v>
+        <v>45172</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45173</v>
+        <v>45179</v>
       </c>
       <c r="B6" t="n">
         <v>22</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45180</v>
+        <v>45186</v>
       </c>
       <c r="B7" t="n">
         <v>30</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45187</v>
+        <v>45193</v>
       </c>
       <c r="B8" t="n">
         <v>41</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45194</v>
+        <v>45200</v>
       </c>
       <c r="B9" t="n">
         <v>85</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45201</v>
+        <v>45207</v>
       </c>
       <c r="B10" t="n">
         <v>44</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45208</v>
+        <v>45214</v>
       </c>
       <c r="B11" t="n">
         <v>34</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45215</v>
+        <v>45221</v>
       </c>
       <c r="B12" t="n">
         <v>33</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45222</v>
+        <v>45228</v>
       </c>
       <c r="B13" t="n">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="B14" t="n">
         <v>50</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="B15" t="n">
         <v>75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45243</v>
+        <v>45249</v>
       </c>
       <c r="B16" t="n">
         <v>97</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B17" t="n">
         <v>50</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B18" t="n">
         <v>98</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B19" t="n">
         <v>91</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B20" t="n">
         <v>81</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B21" t="n">
         <v>63</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B22" t="n">
         <v>67</v>
       </c>
-      <c r="C22" t="n">
-        <v>420</v>
+      <c r="C22" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B23" t="n">
         <v>35</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B24" t="n">
         <v>50</v>
       </c>
-      <c r="C24" t="n">
-        <v>240</v>
+      <c r="C24" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B25" t="n">
         <v>56</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B26" t="n">
         <v>69</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B27" t="n">
         <v>55</v>
       </c>
-      <c r="C27" t="n">
-        <v>120</v>
+      <c r="C27" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B28" t="n">
         <v>83</v>
       </c>
-      <c r="C28" t="n">
-        <v>60</v>
+      <c r="C28" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B29" t="n">
         <v>97</v>
       </c>
-      <c r="C29" t="n">
-        <v>90</v>
+      <c r="C29" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="n">
         <v>45348</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>810</v>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B31" t="n">
         <v>14</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B32" t="n">
         <v>57</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B33" t="n">
         <v>57</v>
       </c>
-      <c r="C33" t="n">
-        <v>10</v>
+      <c r="C33" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B34" t="n">
         <v>57</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B35" t="n">
         <v>59</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B36" t="n">
         <v>41</v>
       </c>
-      <c r="C36" t="n">
-        <v>20</v>
+      <c r="C36" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B37" t="n">
         <v>35</v>
       </c>
-      <c r="C37" t="n">
-        <v>80</v>
+      <c r="C37" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B38" t="n">
         <v>39</v>
       </c>
-      <c r="C38" t="n">
-        <v>60</v>
+      <c r="C38" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B39" t="n">
         <v>47</v>
       </c>
-      <c r="C39" t="n">
-        <v>60</v>
+      <c r="C39" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B40" t="n">
         <v>49</v>
       </c>
-      <c r="C40" t="n">
-        <v>60</v>
+      <c r="C40" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B41" t="n">
         <v>43</v>
       </c>
-      <c r="C41" t="n">
-        <v>160</v>
+      <c r="C41" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B42" t="n">
         <v>33</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
-      <c r="C43" t="n">
-        <v>40</v>
+      <c r="C43" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
+        <v>45452</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="n">
         <v>45446</v>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>40</v>
+      <c r="D44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="n">
         <v>45453</v>
       </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="n">
         <v>45460</v>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="n">
         <v>45467</v>
       </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B48" t="n">
         <v>9</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B49" t="n">
         <v>136</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B50" t="n">
         <v>94</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
-      <c r="C51" t="n">
-        <v>500</v>
+      <c r="C51" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B52" t="n">
         <v>46</v>
       </c>
-      <c r="C52" t="n">
-        <v>160</v>
+      <c r="C52" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B53" t="n">
         <v>85</v>
       </c>
-      <c r="C53" t="n">
-        <v>60</v>
+      <c r="C53" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B54" t="n">
         <v>91</v>
       </c>
-      <c r="C54" t="n">
-        <v>120</v>
+      <c r="C54" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B55" t="n">
         <v>324</v>
       </c>
-      <c r="C55" t="n">
-        <v>460</v>
+      <c r="C55" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B56" t="n">
         <v>50</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B59" t="n">
         <v>27</v>
       </c>
-      <c r="C59" t="n">
-        <v>240</v>
+      <c r="C59" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B60" t="n">
         <v>73</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B61" t="n">
         <v>80</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B62" t="n">
         <v>80</v>
       </c>
-      <c r="C62" t="n">
-        <v>320</v>
+      <c r="C62" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B63" t="n">
         <v>46</v>
       </c>
-      <c r="C63" t="n">
-        <v>220</v>
+      <c r="C63" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B64" t="n">
         <v>45</v>
       </c>
-      <c r="C64" t="n">
-        <v>180</v>
+      <c r="C64" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B65" t="n">
         <v>51</v>
       </c>
-      <c r="C65" t="n">
-        <v>100</v>
+      <c r="C65" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B66" t="n">
         <v>59</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B67" t="n">
         <v>82</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B68" t="n">
         <v>89</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B69" t="n">
         <v>25</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B70" t="n">
         <v>150</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B71" t="n">
         <v>79</v>
       </c>
-      <c r="C71" t="n">
-        <v>360</v>
+      <c r="C71" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B72" t="n">
         <v>37</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B73" t="n">
         <v>18</v>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
+      <c r="C73" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>420</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B3" t="n">
+        <v>240</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-42.85714285714286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B4" t="n">
+        <v>120</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B7" t="n">
+        <v>810</v>
+      </c>
+      <c r="C7" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-98.76543209876543</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B14" t="n">
+        <v>160</v>
+      </c>
+      <c r="C14" t="n">
+        <v>166.6666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B16" t="n">
+        <v>40</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B17" t="n">
+        <v>500</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B18" t="n">
+        <v>160</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B19" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-62.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B20" t="n">
+        <v>120</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B21" t="n">
+        <v>460</v>
+      </c>
+      <c r="C21" t="n">
+        <v>283.3333333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B22" t="n">
+        <v>240</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-47.82608695652174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B23" t="n">
+        <v>320</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B24" t="n">
+        <v>220</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-31.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B25" t="n">
+        <v>180</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-18.18181818181818</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-44.44444444444444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B27" t="n">
+        <v>360</v>
+      </c>
+      <c r="C27" t="n">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4990</v>
+      </c>
+      <c r="B2" t="n">
+        <v>191.9230769230769</v>
+      </c>
+      <c r="C2" t="n">
+        <v>810</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>212.3692307692308</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1020 +453,799 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44976</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44983</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45165</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45172</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45179</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45186</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45193</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45200</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>85</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45207</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>44</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45214</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45221</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45228</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45235</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45242</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>75</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>97</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>98</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>91</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>81</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>67</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>35</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>69</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>83</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>97</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>810</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>14</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>57</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>57</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="C33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>57</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>59</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>41</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>39</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="C38" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>47</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="C39" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>49</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>43</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>33</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="C43" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="C44" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>9</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>136</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>94</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="C51" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>46</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="C52" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>85</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="C53" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>91</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="C54" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>324</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="C55" t="n">
+        <v>460</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>50</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>27</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+      <c r="C59" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>73</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>80</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+      <c r="C62" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B63" t="n">
         <v>46</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
+      <c r="C63" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B64" t="n">
         <v>45</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
+      <c r="C64" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>51</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
+      <c r="C65" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>59</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B67" t="n">
         <v>82</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B68" t="n">
         <v>89</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B69" t="n">
         <v>25</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B70" t="n">
         <v>150</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B71" t="n">
         <v>79</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+      <c r="C71" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>37</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B73" t="n">
         <v>18</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1481,7 +1260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1508,10 +1287,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1519,276 +1298,408 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>-42.85714285714286</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C4" t="n">
-        <v>-50</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>-50</v>
+        <v>-91.66666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>810</v>
+        <v>110</v>
       </c>
       <c r="C7" t="n">
-        <v>800</v>
+        <v>22.22222222222223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>-98.76543209876543</v>
+        <v>36.36363636363635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>-46.66666666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C10" t="n">
-        <v>300</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-25</v>
+        <v>-90.90909090909091</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>191.6666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="C14" t="n">
-        <v>166.6666666666667</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45439</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="C15" t="n">
-        <v>-75</v>
+        <v>-42.85714285714286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45446</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45495</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>1150</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45502</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>-68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>810</v>
       </c>
       <c r="C19" t="n">
-        <v>-62.5</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45516</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>-98.76543209876543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>283.3333333333334</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="C22" t="n">
-        <v>-47.82608695652174</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="C23" t="n">
-        <v>33.33333333333333</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
-        <v>-31.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45586</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C25" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45593</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C26" t="n">
-        <v>-44.44444444444444</v>
+        <v>166.6666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45635</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>40</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>500</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>160</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-62.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>120</v>
+      </c>
+      <c r="C32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>460</v>
+      </c>
+      <c r="C33" t="n">
+        <v>283.3333333333334</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>240</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-47.82608695652174</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>320</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>220</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-31.25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>180</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-18.18181818181818</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-44.44444444444444</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B39" t="n">
         <v>360</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C39" t="n">
         <v>260</v>
       </c>
     </row>
@@ -1835,10 +1746,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4990</v>
+        <v>6360</v>
       </c>
       <c r="B2" t="n">
-        <v>191.9230769230769</v>
+        <v>167.3684210526316</v>
       </c>
       <c r="C2" t="n">
         <v>810</v>
@@ -1875,7 +1786,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>212.3692307692308</v>
+        <v>234.7510668563301</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,6 +1027,14 @@
       </c>
       <c r="B73" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -26238,7 +26246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27041,7 +27049,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
@@ -27052,7 +27060,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
@@ -27063,7 +27071,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -27668,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130">
@@ -27701,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -28196,7 +28204,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -28229,7 +28237,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -28240,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182">
@@ -28251,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183">
@@ -28262,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184">
@@ -28295,7 +28303,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187">
@@ -28526,7 +28534,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="208">
@@ -28537,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
@@ -28559,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
@@ -28603,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215">
@@ -28614,7 +28622,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216">
@@ -28625,7 +28633,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
@@ -29186,7 +29194,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -29208,7 +29216,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="270">
@@ -29384,6 +29392,17 @@
         <v>18</v>
       </c>
       <c r="C285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5</v>
+      </c>
+      <c r="C286" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,14 @@
       </c>
       <c r="B74" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -26246,7 +26254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28666,7 +28674,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220">
@@ -28677,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
@@ -28688,7 +28696,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="222">
@@ -28699,7 +28707,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="223">
@@ -28765,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229">
@@ -28787,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
@@ -28809,7 +28817,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="233">
@@ -28820,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234">
@@ -28842,7 +28850,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="236">
@@ -28853,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -28864,7 +28872,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="238">
@@ -28875,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
@@ -28930,7 +28938,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="244">
@@ -28941,7 +28949,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245">
@@ -28952,7 +28960,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
@@ -28963,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247">
@@ -28974,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248">
@@ -28985,7 +28993,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="249">
@@ -29029,7 +29037,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="253">
@@ -29040,7 +29048,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254">
@@ -29062,7 +29070,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256">
@@ -29073,7 +29081,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
@@ -29084,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258">
@@ -29172,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266">
@@ -29183,7 +29191,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
@@ -29194,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="268">
@@ -29205,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
@@ -29403,6 +29411,17 @@
         <v>5</v>
       </c>
       <c r="C286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B287" t="n">
+        <v>52</v>
+      </c>
+      <c r="C287" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,14 @@
       </c>
       <c r="B75" t="n">
         <v>52</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -26254,7 +26262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C287"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27057,7 +27065,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -27068,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
@@ -27079,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -28520,7 +28528,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
@@ -28531,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
@@ -28542,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
@@ -28553,7 +28561,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="209">
@@ -28575,7 +28583,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211">
@@ -28630,7 +28638,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
@@ -28641,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
@@ -28674,7 +28682,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220">
@@ -28685,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="221">
@@ -28696,7 +28704,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
@@ -28707,7 +28715,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
@@ -28773,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="229">
@@ -28795,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="231">
@@ -28817,7 +28825,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233">
@@ -28828,7 +28836,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
@@ -28850,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
@@ -28861,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="237">
@@ -28872,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238">
@@ -28883,7 +28891,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="239">
@@ -28938,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244">
@@ -28949,7 +28957,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="245">
@@ -28960,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="246">
@@ -28971,7 +28979,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
@@ -28982,7 +28990,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248">
@@ -28993,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249">
@@ -29037,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253">
@@ -29048,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254">
@@ -29070,7 +29078,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256">
@@ -29081,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257">
@@ -29092,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
@@ -29180,7 +29188,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -29191,7 +29199,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267">
@@ -29202,7 +29210,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -29213,7 +29221,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="269">
@@ -29422,6 +29430,17 @@
         <v>52</v>
       </c>
       <c r="C287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B288" t="n">
+        <v>10</v>
+      </c>
+      <c r="C288" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RVN2VG_sales_po_comparison.xlsx
@@ -1050,7 +1050,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -29438,7 +29438,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B288" t="n">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
